--- a/Tradutor_Ticuna.xlsx
+++ b/Tradutor_Ticuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diana Torres Alves\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC56E07E-6FF2-4B47-92D4-75E367DDC38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD059A30-1E48-4159-8DBF-0F5794519D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{898E2926-5038-4899-A5B6-947D8F601FDA}"/>
   </bookViews>
@@ -89,9 +89,6 @@
     <t>Camarão</t>
   </si>
   <si>
-    <t>Capirava</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Caracol</t>
   </si>
   <si>
@@ -231,6 +228,9 @@
   </si>
   <si>
     <t>Woru</t>
+  </si>
+  <si>
+    <t>Capivara</t>
   </si>
 </sst>
 </file>
@@ -617,7 +617,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E18" sqref="E17:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -647,7 +647,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -655,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -663,7 +663,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -671,7 +671,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -679,7 +679,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -687,7 +687,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -695,7 +695,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -703,7 +703,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -711,7 +711,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -719,7 +719,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -727,7 +727,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -735,7 +735,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -743,71 +743,71 @@
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
